--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs1-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs1-Itga3.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H2">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I2">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J2">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>6.169513000000001</v>
+        <v>2.731629</v>
       </c>
       <c r="N2">
-        <v>18.508539</v>
+        <v>8.194887</v>
       </c>
       <c r="O2">
-        <v>0.5207942167525854</v>
+        <v>0.5547800938501829</v>
       </c>
       <c r="P2">
-        <v>0.5207942167525853</v>
+        <v>0.554780093850183</v>
       </c>
       <c r="Q2">
-        <v>923.306864722193</v>
+        <v>7.450475301979</v>
       </c>
       <c r="R2">
-        <v>8309.761782499738</v>
+        <v>67.054277717811</v>
       </c>
       <c r="S2">
-        <v>0.3083810457001706</v>
+        <v>0.01717626606528653</v>
       </c>
       <c r="T2">
-        <v>0.3083810457001706</v>
+        <v>0.01717626606528654</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H3">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I3">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J3">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,28 +614,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.06813733333333334</v>
+        <v>0.06813733333333333</v>
       </c>
       <c r="N3">
         <v>0.204412</v>
       </c>
       <c r="O3">
-        <v>0.00575175530790569</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="P3">
-        <v>0.005751755307905689</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="Q3">
-        <v>10.19718535491067</v>
+        <v>0.1858435091817778</v>
       </c>
       <c r="R3">
-        <v>91.774668194196</v>
+        <v>1.672591582636</v>
       </c>
       <c r="S3">
-        <v>0.003405821837891325</v>
+        <v>0.0004284421370224324</v>
       </c>
       <c r="T3">
-        <v>0.003405821837891325</v>
+        <v>0.0004284421370224325</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H4">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I4">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J4">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.608704333333333</v>
+        <v>2.124038666666666</v>
       </c>
       <c r="N4">
-        <v>16.826113</v>
+        <v>6.372115999999999</v>
       </c>
       <c r="O4">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="P4">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="Q4">
-        <v>839.3782804515974</v>
+        <v>5.793282186727555</v>
       </c>
       <c r="R4">
-        <v>7554.404524064378</v>
+        <v>52.139539680548</v>
       </c>
       <c r="S4">
-        <v>0.2803492118966945</v>
+        <v>0.01335578633541492</v>
       </c>
       <c r="T4">
-        <v>0.2803492118966945</v>
+        <v>0.01335578633541492</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>158.202374</v>
       </c>
       <c r="I5">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J5">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>6.169513000000001</v>
+        <v>2.731629</v>
       </c>
       <c r="N5">
-        <v>18.508539</v>
+        <v>8.194887</v>
       </c>
       <c r="O5">
-        <v>0.5207942167525854</v>
+        <v>0.5547800938501829</v>
       </c>
       <c r="P5">
-        <v>0.5207942167525853</v>
+        <v>0.554780093850183</v>
       </c>
       <c r="Q5">
-        <v>325.3438676746208</v>
+        <v>144.050064229082</v>
       </c>
       <c r="R5">
-        <v>2928.094809071587</v>
+        <v>1296.450578061738</v>
       </c>
       <c r="S5">
-        <v>0.1086636371493079</v>
+        <v>0.3320918638926453</v>
       </c>
       <c r="T5">
-        <v>0.1086636371493079</v>
+        <v>0.3320918638926454</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>158.202374</v>
       </c>
       <c r="I6">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J6">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,28 +800,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.06813733333333334</v>
+        <v>0.06813733333333333</v>
       </c>
       <c r="N6">
         <v>0.204412</v>
       </c>
       <c r="O6">
-        <v>0.00575175530790569</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="P6">
-        <v>0.005751755307905689</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="Q6">
-        <v>3.593162630454223</v>
+        <v>3.593162630454222</v>
       </c>
       <c r="R6">
         <v>32.338463674088</v>
       </c>
       <c r="S6">
-        <v>0.001200102903690255</v>
+        <v>0.008283648338533945</v>
       </c>
       <c r="T6">
-        <v>0.001200102903690254</v>
+        <v>0.008283648338533947</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>158.202374</v>
       </c>
       <c r="I7">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J7">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.608704333333333</v>
+        <v>2.124038666666666</v>
       </c>
       <c r="N7">
-        <v>16.826113</v>
+        <v>6.372115999999999</v>
       </c>
       <c r="O7">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="P7">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="Q7">
-        <v>295.7701135324735</v>
+        <v>112.0093198448204</v>
       </c>
       <c r="R7">
-        <v>2661.931021792262</v>
+        <v>1008.083878603384</v>
       </c>
       <c r="S7">
-        <v>0.09878611367786792</v>
+        <v>0.2582253885111714</v>
       </c>
       <c r="T7">
-        <v>0.09878611367786792</v>
+        <v>0.2582253885111714</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H8">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I8">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J8">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>6.169513000000001</v>
+        <v>2.731629</v>
       </c>
       <c r="N8">
-        <v>18.508539</v>
+        <v>8.194887</v>
       </c>
       <c r="O8">
-        <v>0.5207942167525854</v>
+        <v>0.5547800938501829</v>
       </c>
       <c r="P8">
-        <v>0.5207942167525853</v>
+        <v>0.554780093850183</v>
       </c>
       <c r="Q8">
-        <v>310.6308192417337</v>
+        <v>89.14404361346702</v>
       </c>
       <c r="R8">
-        <v>2795.677373175603</v>
+        <v>802.2963925212031</v>
       </c>
       <c r="S8">
-        <v>0.1037495339031069</v>
+        <v>0.205511963892251</v>
       </c>
       <c r="T8">
-        <v>0.1037495339031069</v>
+        <v>0.205511963892251</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H9">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I9">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J9">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -986,28 +986,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.06813733333333334</v>
+        <v>0.06813733333333333</v>
       </c>
       <c r="N9">
         <v>0.204412</v>
       </c>
       <c r="O9">
-        <v>0.00575175530790569</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="P9">
-        <v>0.005751755307905689</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="Q9">
-        <v>3.430668786058222</v>
+        <v>2.223595303158667</v>
       </c>
       <c r="R9">
-        <v>30.876019074524</v>
+        <v>20.012357728428</v>
       </c>
       <c r="S9">
-        <v>0.001145830566324111</v>
+        <v>0.005126258795654266</v>
       </c>
       <c r="T9">
-        <v>0.00114583056632411</v>
+        <v>0.005126258795654267</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H10">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I10">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J10">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.608704333333333</v>
+        <v>2.124038666666666</v>
       </c>
       <c r="N10">
-        <v>16.826113</v>
+        <v>6.372115999999999</v>
       </c>
       <c r="O10">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="P10">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="Q10">
-        <v>282.3944810470445</v>
+        <v>69.31592670088934</v>
       </c>
       <c r="R10">
-        <v>2541.550329423401</v>
+        <v>623.843340308004</v>
       </c>
       <c r="S10">
-        <v>0.09431870236494666</v>
+        <v>0.15980038203202</v>
       </c>
       <c r="T10">
-        <v>0.09431870236494666</v>
+        <v>0.15980038203202</v>
       </c>
     </row>
   </sheetData>
